--- a/src/test/resources/008 One-team-one-mh-one-strategic-project.xlsx
+++ b/src/test/resources/008 One-team-one-mh-one-strategic-project.xlsx
@@ -119,7 +119,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -402,11 +402,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -1044,7 +1044,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1056,7 +1056,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
